--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3187104.587811455</v>
+        <v>3184769.476609475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8316640.810306289</v>
+        <v>8316640.810306287</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>193.1994278308467</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.40055121331426</v>
+        <v>56.3083098349818</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>326.9597459283488</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>139.5159360943554</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>14.95687341106361</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695615</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>105.321942911332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233266</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.17188115873</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>657.3836285604862</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>246.3977237708786</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>837.079342274803</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624673</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800742</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821638</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904424</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2209.570673130042</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1840.60815618963</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1482.342457582879</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>1096.554204984635</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>685.5683001950276</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130042</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.570673130042</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.0543138529669</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>623.11813092506</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1495.520932100401</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1495.520932100401</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1240.836443894514</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1240.836443894514</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.846892996497</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.0543138529669</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3310.497868668702</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3104.520121052924</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4887,13 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5993,43 +5993,43 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7315,13 +7315,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,40 +7655,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7434581780649</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111049</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711693</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.815700412496</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>13.30196929556013</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="7">
@@ -26314,34 +26314,34 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
@@ -26353,7 +26353,7 @@
         <v>706253.2747287558</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,34 +26421,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756564</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756495</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756617</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756613</v>
@@ -26470,13 +26470,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-626004.2810766188</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993002</v>
+        <v>488747.5024993008</v>
       </c>
       <c r="D6" t="n">
-        <v>329326.2325014093</v>
+        <v>329326.2325014088</v>
       </c>
       <c r="E6" t="n">
-        <v>270381.0827407366</v>
+        <v>270346.3448153005</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480915</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="G6" t="n">
-        <v>595793.5445480914</v>
+        <v>595758.8066226561</v>
       </c>
       <c r="H6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226558</v>
       </c>
       <c r="I6" t="n">
-        <v>595793.5445480915</v>
+        <v>595758.8066226562</v>
       </c>
       <c r="J6" t="n">
-        <v>428188.3667381092</v>
+        <v>428153.6288126735</v>
       </c>
       <c r="K6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226556</v>
       </c>
       <c r="L6" t="n">
-        <v>547499.5745399011</v>
+        <v>547464.8366144652</v>
       </c>
       <c r="M6" t="n">
-        <v>510738.5166125801</v>
+        <v>510703.7786871443</v>
       </c>
       <c r="N6" t="n">
-        <v>595793.5445480918</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="O6" t="n">
-        <v>595793.5445480922</v>
+        <v>595758.8066226565</v>
       </c>
       <c r="P6" t="n">
-        <v>595793.5445480918</v>
+        <v>595758.8066226558</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,31 +26790,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,34 +27015,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973561</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>190.8166233022537</v>
       </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022539</v>
-      </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>218.3482749421073</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181461</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>84.58795684460517</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>81.23275990285651</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>94.23088837711222</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2.368521610171397e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>-2.103206497849896e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175677</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34787,19 +34787,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>559.9405577709388</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489552</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
         <v>735.300110790295</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
